--- a/Main/Excel.xlsx
+++ b/Main/Excel.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,6 +813,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -837,13 +838,13 @@
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>dhaka education board
 মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
@@ -860,13 +861,13 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>saturday surya movie
 Saripodhaa Sanivaaram — ২০২৪ সালের চলচ্চিত্র</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Saturday</t>
         </is>
@@ -883,13 +884,13 @@
           <t>Baby</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Baby's Day Out
 বেবি'স ডে আউট — ১৯৯৪ সালের চলচ্চিত্র</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
@@ -906,13 +907,13 @@
           <t>School</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>School Friends
 স্কুল ফ্রেন্ডস — টিভি প্রোগ্রাম</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>School</t>
         </is>
@@ -929,13 +930,13 @@
           <t>Cricket</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cricket World Cup
 আইসিসি ক্রিকেট বিশ্ব কাপ — ক্রিকেট লীগ</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
@@ -952,13 +953,13 @@
           <t>Momey</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>moneygram
 মানিগ্রাম ইন্টারন্যাশনাল ইনকর্পোরেটেড</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
@@ -975,13 +976,12 @@
           <t>Int</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Inter Miami
-ইন্টার মায়ামি সিএফ — ফুটবল টীম</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>introduction to social work গ্রন্থের লেখক কে</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
@@ -998,13 +998,13 @@
           <t>Hubby</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>hubby meaning in bengali
 স্বামী (বাংলা)</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hubby</t>
         </is>
@@ -1021,13 +1021,13 @@
           <t>Hello</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Hello Hello! (Noodle &amp; Pals) [Sing-Along]
 গান</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
@@ -1044,12 +1044,12 @@
           <t>By</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>By</t>
         </is>
